--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Slpi</t>
+  </si>
+  <si>
+    <t>Plscr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slpi</t>
-  </si>
-  <si>
-    <t>Plscr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>0.869812</v>
       </c>
       <c r="I2">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="J2">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.07730433333333</v>
+        <v>18.98824366666667</v>
       </c>
       <c r="N2">
-        <v>51.231913</v>
+        <v>56.964731</v>
       </c>
       <c r="O2">
-        <v>0.3573523430333864</v>
+        <v>0.3642588803316547</v>
       </c>
       <c r="P2">
-        <v>0.3573523430333864</v>
+        <v>0.3642588803316547</v>
       </c>
       <c r="Q2">
-        <v>4.951348078928445</v>
+        <v>5.505400733396889</v>
       </c>
       <c r="R2">
-        <v>44.562132710356</v>
+        <v>49.548606600572</v>
       </c>
       <c r="S2">
-        <v>0.1896605446908336</v>
+        <v>0.184398455387522</v>
       </c>
       <c r="T2">
-        <v>0.1896605446908336</v>
+        <v>0.1843984553875219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.869812</v>
       </c>
       <c r="I3">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="J3">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>72.78474800000001</v>
       </c>
       <c r="O3">
-        <v>0.5076874688418249</v>
+        <v>0.465419398043004</v>
       </c>
       <c r="P3">
-        <v>0.5076874688418249</v>
+        <v>0.4654193980430039</v>
       </c>
       <c r="Q3">
         <v>7.034338580819556</v>
@@ -635,10 +635,10 @@
         <v>63.30904722737601</v>
       </c>
       <c r="S3">
-        <v>0.2694491410239759</v>
+        <v>0.2356088560651683</v>
       </c>
       <c r="T3">
-        <v>0.2694491410239759</v>
+        <v>0.2356088560651683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>0.869812</v>
       </c>
       <c r="I4">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="J4">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.287778</v>
+        <v>6.909617666666667</v>
       </c>
       <c r="N4">
-        <v>15.863334</v>
+        <v>20.728853</v>
       </c>
       <c r="O4">
-        <v>0.1106497735741623</v>
+        <v>0.1325498892347874</v>
       </c>
       <c r="P4">
-        <v>0.1106497735741623</v>
+        <v>0.1325498892347874</v>
       </c>
       <c r="Q4">
-        <v>1.533124252578667</v>
+        <v>2.003356120626222</v>
       </c>
       <c r="R4">
-        <v>13.798118273208</v>
+        <v>18.030205085636</v>
       </c>
       <c r="S4">
-        <v>0.05872606332409683</v>
+        <v>0.06710061485509344</v>
       </c>
       <c r="T4">
-        <v>0.05872606332409684</v>
+        <v>0.06710061485509343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>0.869812</v>
       </c>
       <c r="I5">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="J5">
-        <v>0.5307382150649959</v>
+        <v>0.5062291280850276</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.161756333333333</v>
+        <v>1.968986333333334</v>
       </c>
       <c r="N5">
-        <v>3.485269</v>
+        <v>5.906959000000001</v>
       </c>
       <c r="O5">
-        <v>0.02431041455062643</v>
+        <v>0.03777183239055392</v>
       </c>
       <c r="P5">
-        <v>0.02431041455062643</v>
+        <v>0.03777183239055391</v>
       </c>
       <c r="Q5">
-        <v>0.3368365332697777</v>
+        <v>0.5708826468564445</v>
       </c>
       <c r="R5">
-        <v>3.031528799428</v>
+        <v>5.137943821708</v>
       </c>
       <c r="S5">
-        <v>0.01290246602608957</v>
+        <v>0.01912120177724392</v>
       </c>
       <c r="T5">
-        <v>0.01290246602608958</v>
+        <v>0.01912120177724391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.231</v>
+        <v>0.282802</v>
       </c>
       <c r="H6">
-        <v>0.6930000000000001</v>
+        <v>0.848406</v>
       </c>
       <c r="I6">
-        <v>0.4228518151509086</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="J6">
-        <v>0.4228518151509087</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.07730433333333</v>
+        <v>18.98824366666667</v>
       </c>
       <c r="N6">
-        <v>51.231913</v>
+        <v>56.964731</v>
       </c>
       <c r="O6">
-        <v>0.3573523430333864</v>
+        <v>0.3642588803316547</v>
       </c>
       <c r="P6">
-        <v>0.3573523430333864</v>
+        <v>0.3642588803316547</v>
       </c>
       <c r="Q6">
-        <v>3.944857301</v>
+        <v>5.369913285420666</v>
       </c>
       <c r="R6">
-        <v>35.50371570900001</v>
+        <v>48.329219568786</v>
       </c>
       <c r="S6">
-        <v>0.1511070869000976</v>
+        <v>0.1798604249441327</v>
       </c>
       <c r="T6">
-        <v>0.1511070869000976</v>
+        <v>0.1798604249441327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.231</v>
+        <v>0.282802</v>
       </c>
       <c r="H7">
-        <v>0.6930000000000001</v>
+        <v>0.848406</v>
       </c>
       <c r="I7">
-        <v>0.4228518151509086</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="J7">
-        <v>0.4228518151509087</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>72.78474800000001</v>
       </c>
       <c r="O7">
-        <v>0.5076874688418249</v>
+        <v>0.465419398043004</v>
       </c>
       <c r="P7">
-        <v>0.5076874688418249</v>
+        <v>0.4654193980430039</v>
       </c>
       <c r="Q7">
-        <v>5.604425596</v>
+        <v>6.861224101298667</v>
       </c>
       <c r="R7">
-        <v>50.43983036400001</v>
+        <v>61.751016911688</v>
       </c>
       <c r="S7">
-        <v>0.214676567729136</v>
+        <v>0.2298105419778357</v>
       </c>
       <c r="T7">
-        <v>0.2146765677291361</v>
+        <v>0.2298105419778356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.231</v>
+        <v>0.282802</v>
       </c>
       <c r="H8">
-        <v>0.6930000000000001</v>
+        <v>0.848406</v>
       </c>
       <c r="I8">
-        <v>0.4228518151509086</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="J8">
-        <v>0.4228518151509087</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.287778</v>
+        <v>6.909617666666667</v>
       </c>
       <c r="N8">
-        <v>15.863334</v>
+        <v>20.728853</v>
       </c>
       <c r="O8">
-        <v>0.1106497735741623</v>
+        <v>0.1325498892347874</v>
       </c>
       <c r="P8">
-        <v>0.1106497735741623</v>
+        <v>0.1325498892347874</v>
       </c>
       <c r="Q8">
-        <v>1.221476718</v>
+        <v>1.954053695368667</v>
       </c>
       <c r="R8">
-        <v>10.993290462</v>
+        <v>17.586483258318</v>
       </c>
       <c r="S8">
-        <v>0.04678845760187157</v>
+        <v>0.06544927437969401</v>
       </c>
       <c r="T8">
-        <v>0.04678845760187158</v>
+        <v>0.06544927437969399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.231</v>
+        <v>0.282802</v>
       </c>
       <c r="H9">
-        <v>0.6930000000000001</v>
+        <v>0.848406</v>
       </c>
       <c r="I9">
-        <v>0.4228518151509086</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="J9">
-        <v>0.4228518151509087</v>
+        <v>0.4937708719149724</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.161756333333333</v>
+        <v>1.968986333333334</v>
       </c>
       <c r="N9">
-        <v>3.485269</v>
+        <v>5.906959000000001</v>
       </c>
       <c r="O9">
-        <v>0.02431041455062643</v>
+        <v>0.03777183239055392</v>
       </c>
       <c r="P9">
-        <v>0.02431041455062643</v>
+        <v>0.03777183239055391</v>
       </c>
       <c r="Q9">
-        <v>0.268365713</v>
+        <v>0.5568332730393334</v>
       </c>
       <c r="R9">
-        <v>2.415291417</v>
+        <v>5.011499457354001</v>
       </c>
       <c r="S9">
-        <v>0.01027970291980345</v>
+        <v>0.01865063061331001</v>
       </c>
       <c r="T9">
-        <v>0.01027970291980345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02535333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.07606</v>
-      </c>
-      <c r="I10">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="J10">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>17.07730433333333</v>
-      </c>
-      <c r="N10">
-        <v>51.231913</v>
-      </c>
-      <c r="O10">
-        <v>0.3573523430333864</v>
-      </c>
-      <c r="P10">
-        <v>0.3573523430333864</v>
-      </c>
-      <c r="Q10">
-        <v>0.4329665891977778</v>
-      </c>
-      <c r="R10">
-        <v>3.89669930278</v>
-      </c>
-      <c r="S10">
-        <v>0.01658471144245516</v>
-      </c>
-      <c r="T10">
-        <v>0.01658471144245516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02535333333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.07606</v>
-      </c>
-      <c r="I11">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="J11">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>24.26158266666667</v>
-      </c>
-      <c r="N11">
-        <v>72.78474800000001</v>
-      </c>
-      <c r="O11">
-        <v>0.5076874688418249</v>
-      </c>
-      <c r="P11">
-        <v>0.5076874688418249</v>
-      </c>
-      <c r="Q11">
-        <v>0.6151119925422224</v>
-      </c>
-      <c r="R11">
-        <v>5.53600793288</v>
-      </c>
-      <c r="S11">
-        <v>0.02356176008871297</v>
-      </c>
-      <c r="T11">
-        <v>0.02356176008871297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.02535333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.07606</v>
-      </c>
-      <c r="I12">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="J12">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.287778</v>
-      </c>
-      <c r="N12">
-        <v>15.863334</v>
-      </c>
-      <c r="O12">
-        <v>0.1106497735741623</v>
-      </c>
-      <c r="P12">
-        <v>0.1106497735741623</v>
-      </c>
-      <c r="Q12">
-        <v>0.1340627982266667</v>
-      </c>
-      <c r="R12">
-        <v>1.20656518404</v>
-      </c>
-      <c r="S12">
-        <v>0.005135252648193869</v>
-      </c>
-      <c r="T12">
-        <v>0.00513525264819387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02535333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.07606</v>
-      </c>
-      <c r="I13">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="J13">
-        <v>0.0464099697840954</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.161756333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.485269</v>
-      </c>
-      <c r="O13">
-        <v>0.02431041455062643</v>
-      </c>
-      <c r="P13">
-        <v>0.02431041455062643</v>
-      </c>
-      <c r="Q13">
-        <v>0.02945439557111111</v>
-      </c>
-      <c r="R13">
-        <v>0.26508956014</v>
-      </c>
-      <c r="S13">
-        <v>0.001128245604733406</v>
-      </c>
-      <c r="T13">
-        <v>0.001128245604733406</v>
+        <v>0.01865063061331</v>
       </c>
     </row>
   </sheetData>
